--- a/biology/Écologie/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(S)/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(S).xlsx
+++ b/biology/Écologie/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(S)/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(S).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(S)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 à compléter par ordre alphabétique
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(S)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sam
-Samaipaticereus - fam. Cactacées (cactus)
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Samaipaticereus - fam. Cactacées (cactus)
 Samaipaticereus corroanus
 </t>
         </is>
@@ -527,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(S)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,8 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sch
-Schefflera - fam. Araliacées  (arbre tropical)
+          <t>Sch</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Schefflera - fam. Araliacées  (arbre tropical)
 Schefflera abyssinica
 Schefflera actinophylla - Arbre-ombrelle
 Schefflera actinophylla amate
@@ -569,9 +591,43 @@
 Schlumbergera opuntioides
 Schlumbergera orssichiana
 Schlumbergera russelliana
-Schlumbergera truncata
-Scl
-Sclerocactus - fam. Cactacées (Cactus)
+Schlumbergera truncata</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sc</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Scl</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sclerocactus - fam. Cactacées (Cactus)
 Sclerocactus brevihamatus
 Sclerocactus erectocentrus
 Sclerocactus glaucus
@@ -591,34 +647,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Écologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Se</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sel
-Selenicereus - fam. Cactacées (Cactus)
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sel</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selenicereus - fam. Cactacées (Cactus)
 Selenicereus anthonyanus
 Selenicereus atropilosus
 Selenicereus boeckmannii
@@ -646,34 +707,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Écologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>St</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ste
-Stenocactus - fam. Cactacées (Cactus)
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ste</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Stenocactus - fam. Cactacées (Cactus)
 Stenocactus coptonogonus
 Stenocactus crispatus
 Stenocactus multicostatus
@@ -706,9 +772,43 @@
 Stephanocereus leucostele
 Stephanocereus luetzelburgii
 Stetsonia - fam. Cactacées (Cactus)
-Stetsonia coryne
-Str
-Strombocactus - fam. Cactacées (Cactus)
+Stetsonia coryne</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>St</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Str</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Strombocactus - fam. Cactacées (Cactus)
 Strombocactus disciformis
  Portail de l’écologie   Portail de la botanique   Portail de l’Amérique                   </t>
         </is>
